--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D740D1-13A1-4538-B182-47F63DE1F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4090E8-E670-4273-8FFE-F9DD77382CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="5895" windowWidth="14310" windowHeight="7830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="错误代码表" sheetId="3" r:id="rId1"/>
@@ -81,14 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回发数据格式出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收数据格式出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求路由出错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +105,14 @@
   </si>
   <si>
     <t>serverTip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端接收数据格式出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端回发数据格式出错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +502,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,7 +510,7 @@
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>201</v>
+        <v>601</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -612,76 +612,76 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>202</v>
+        <v>602</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>203</v>
+        <v>603</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>204</v>
+        <v>604</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>205</v>
+        <v>605</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4090E8-E670-4273-8FFE-F9DD77382CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657D2130-9ED3-465D-BE84-69E4C1964625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>服务端回发数据格式出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的账号已在其他地方登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,14 +513,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="24.25" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
@@ -687,11 +699,21 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1">
+        <v>606</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657D2130-9ED3-465D-BE84-69E4C1964625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D7DCDB-03C6-4FF6-A906-E696F6287661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,88 @@
   </si>
   <si>
     <t>重复登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络连接出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD_NOTSAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERNAME_EXIST</t>
+  </si>
+  <si>
+    <t>用户名已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERNAME_NOTVALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名格式错误：6-15位的大小写字母、数字、下划线、星号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式错误：6-15位的大小写字母、数字、下划线、星号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD_NOTVALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区服正在维护</t>
+  </si>
+  <si>
+    <t>区服正在维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREA_MAINTENANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏名已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏名格式错误：2-6位的汉字、大小写字母、数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号内游戏角色已到达上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_SUM_MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMENAME_NOTVALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMENAME_EXIST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,18 +593,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="66.25" customWidth="1"/>
+    <col min="4" max="4" width="65" customWidth="1"/>
+    <col min="5" max="5" width="61.5" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
@@ -630,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -649,7 +731,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
@@ -668,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -687,7 +769,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
@@ -718,49 +800,167 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1">
+        <v>701</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1">
+        <v>702</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="1">
+        <v>703</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1">
+        <v>704</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="1">
+        <v>705</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>706</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>707</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>708</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>709</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D7DCDB-03C6-4FF6-A906-E696F6287661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B3E766-66D3-45B2-A028-2D4DDE80775A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="错误代码表" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,69 +144,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用户名已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERNAME_NOTVALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名格式错误：6-15位的大小写字母、数字、下划线、星号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式错误：6-15位的大小写字母、数字、下划线、星号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD_NOTVALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区服正在维护</t>
+  </si>
+  <si>
+    <t>区服正在维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREA_MAINTENANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏名已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏名格式错误：2-6位的汉字、大小写字母、数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号内游戏角色已到达上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_SUM_MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMENAME_NOTVALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMENAME_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>USERNAME_EXIST</t>
-  </si>
-  <si>
-    <t>用户名已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USERNAME_NOTVALID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名格式错误：6-15位的大小写字母、数字、下划线、星号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码格式错误：6-15位的大小写字母、数字、下划线、星号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD_NOTVALID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD_ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区服正在维护</t>
-  </si>
-  <si>
-    <t>区服正在维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AREA_MAINTENANCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏名已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏名格式错误：2-6位的汉字、大小写字母、数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号内游戏角色已到达上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_SUM_MAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAMENAME_NOTVALID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAMENAME_EXIST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -823,16 +836,16 @@
         <v>702</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -842,16 +855,16 @@
         <v>703</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -861,16 +874,16 @@
         <v>704</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -880,16 +893,16 @@
         <v>705</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -899,33 +912,35 @@
         <v>706</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>707</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -936,13 +951,13 @@
         <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -953,19 +968,36 @@
         <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>710</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>45</v>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G66" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G67" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"blue,green,purple,red"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B3E766-66D3-45B2-A028-2D4DDE80775A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862D5D3A-A869-4B5D-8811-537861F48490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-300" yWindow="5160" windowWidth="25275" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="错误代码表" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,22 @@
   </si>
   <si>
     <t>USERNAME_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库操作出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -744,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
@@ -763,7 +779,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -779,16 +795,16 @@
         <v>605</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -798,206 +814,225 @@
         <v>606</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>701</v>
+        <v>607</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
+        <v>706</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
         <v>707</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
         <v>708</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
         <v>709</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
         <v>710</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G67" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G68" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"blue,green,purple,red"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862D5D3A-A869-4B5D-8811-537861F48490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A39FF2-311F-47FD-8640-6F034A711781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="5160" windowWidth="25275" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="4080" windowWidth="13365" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="错误代码表" sheetId="3" r:id="rId1"/>
+    <sheet name="错误信息表" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,14 @@
   </si>
   <si>
     <t>非法操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_BAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号已被封禁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -966,33 +974,35 @@
         <v>707</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>708</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1000,16 +1010,16 @@
         <v>709</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1017,22 +1027,39 @@
         <v>710</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>711</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G68" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G69" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"blue,green,purple,red"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A39FF2-311F-47FD-8640-6F034A711781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34049FE-8405-4204-909C-B940AF37558A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4470" yWindow="4080" windowWidth="13365" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,14 @@
   </si>
   <si>
     <t>账号已被封禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_NOTEXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据不存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -841,225 +849,244 @@
         <v>607</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>701</v>
+        <v>608</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
+        <v>710</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
         <v>711</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G69" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G70" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"blue,green,purple,red"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34049FE-8405-4204-909C-B940AF37558A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D8387A-0E72-457A-8C61-58E35C5575B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="4080" windowWidth="13365" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="错误信息表" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D8387A-0E72-457A-8C61-58E35C5575B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5049814-B53C-4A2C-8AC2-0AF4B556B936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5385" yWindow="1185" windowWidth="13365" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="错误信息表" sheetId="3" r:id="rId1"/>
+    <sheet name="游戏道具表" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +253,18 @@
   </si>
   <si>
     <t>数据不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是道具一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,9 +308,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,4 +1109,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D886B55-82F1-4DEA-B837-6832A3F86F7F}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="23.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>30001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5049814-B53C-4A2C-8AC2-0AF4B556B936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2052F9A9-7FA3-44C1-920E-8E4A74BF652B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="1185" windowWidth="13365" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="错误信息表" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,14 @@
   </si>
   <si>
     <t>我是道具一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMEOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -770,16 +778,16 @@
         <v>602</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -789,16 +797,16 @@
         <v>603</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -808,7 +816,7 @@
         <v>604</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>52</v>
@@ -817,7 +825,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -827,16 +835,16 @@
         <v>605</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -846,16 +854,16 @@
         <v>606</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -865,16 +873,16 @@
         <v>607</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -884,225 +892,244 @@
         <v>608</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>701</v>
+        <v>609</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
+        <v>710</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
         <v>711</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G70" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G71" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"blue,green,purple,red"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1115,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D886B55-82F1-4DEA-B837-6832A3F86F7F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
